--- a/biology/Médecine/Norman_E._Rosenthal/Norman_E._Rosenthal.xlsx
+++ b/biology/Médecine/Norman_E._Rosenthal/Norman_E._Rosenthal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Docteur Norman E. Rosenthal est un psychiatre et scientifique qui dans les années 1980 est le premier à décrire les troubles affectifs saisonniers (TAS), plus communément connu sous le nom de dépression saisonnière ou encore « SAD » (de l’abréviation anglophone de seasonal affective disorder). Il est un pionnier dans l'utilisation de la lumière comme traitement de ce type de dépression, appelé luminothérapie. 
 Il a été chef de travaux agrégé durant 20 ans à l'Institut national de santé mentale (NIMH) aux États-Unis, où il étudie les troubles de l'humeur, les troubles du sommeil, la chronobiologie et les rythmes biologiques. 
-En 1990/1991, le Dr Rosenthal reçoit le prestigieux prix "Anna Monika Research Foundation" pour sa contribution à la recherche dans le traitement de la dépression[1].
+En 1990/1991, le Dr Rosenthal reçoit le prestigieux prix "Anna Monika Research Foundation" pour sa contribution à la recherche dans le traitement de la dépression.
 Les recherches du Dr Rosenthal concernant les TAS l’amène à écrire plusieurs livres sur le sujet. Plus récemment Rosenthal a écrit un livre sur la technique de Méditation transcendantale et mené des recherches sur son influence potentielle sur le syndrome de stress post-traumatique (SSPT). 
 Au total, Il est l'auteur de 200 publications savantes, et a écrit sept livres, dont un sur le thème du décalage horaire.
 </t>
@@ -515,9 +527,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr Norman Rosenthal est né à Johannesbourg, en Afrique du Sud, et a fréquenté l'université du Witwatersrand, où il obtient son diplôme de médecine avec mention très bien. Il déménage aux États-Unis et devient praticien en chef à l’hôpital presbytérien de Columbia et au New York Psychiatric Institute[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Norman Rosenthal est né à Johannesbourg, en Afrique du Sud, et a fréquenté l'université du Witwatersrand, où il obtient son diplôme de médecine avec mention très bien. Il déménage aux États-Unis et devient praticien en chef à l’hôpital presbytérien de Columbia et au New York Psychiatric Institute.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mène des recherches à l'Institut national de santé mentale National Institute of Mental Health depuis plus de 20 ans. C'est là qu'il dirige l'équipe qui a décrit pour la première fois les troubles affectifs saisonniers ou dépression saisonnière. Il est aussi celui qui découvre l'importance de la lumière (luminothérapie) pour le traitement de ces troubles[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mène des recherches à l'Institut national de santé mentale National Institute of Mental Health depuis plus de 20 ans. C'est là qu'il dirige l'équipe qui a décrit pour la première fois les troubles affectifs saisonniers ou dépression saisonnière. Il est aussi celui qui découvre l'importance de la lumière (luminothérapie) pour le traitement de ces troubles,.
 </t>
         </is>
       </c>
